--- a/notebooks/sym_clas.xlsx
+++ b/notebooks/sym_clas.xlsx
@@ -547,58 +547,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.922</v>
+        <v>0.957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.787</v>
+        <v>0.83</v>
       </c>
       <c r="D2" t="n">
         <v>0.802</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.84</v>
+        <v>0.871</v>
       </c>
       <c r="G2" t="n">
         <v>0.851</v>
       </c>
       <c r="H2" t="n">
-        <v>0.273</v>
+        <v>0.18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.41</v>
+        <v>0.377</v>
       </c>
       <c r="J2" t="n">
-        <v>0.482</v>
+        <v>0.45</v>
       </c>
       <c r="K2" t="n">
-        <v>0.064</v>
+        <v>0.032</v>
       </c>
       <c r="L2" t="n">
-        <v>0.163</v>
+        <v>0.133</v>
       </c>
       <c r="M2" t="n">
-        <v>0.173</v>
+        <v>0.165</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08799999952316284</v>
+        <v>0.07699999958276749</v>
       </c>
       <c r="O2" t="n">
         <v>0.1030000001192093</v>
       </c>
       <c r="P2" t="n">
-        <v>0.119999997317791</v>
+        <v>0.1099999994039536</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0689999982714653</v>
+        <v>0.06400000303983688</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07900000363588333</v>
+        <v>0.07699999958276749</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08600000292062759</v>
+        <v>0.0820000022649765</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -618,58 +618,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.37</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.371</v>
+        <v>0.503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.589</v>
       </c>
       <c r="E3" t="n">
-        <v>0.507</v>
+        <v>0.673</v>
       </c>
       <c r="F3" t="n">
-        <v>0.491</v>
+        <v>0.622</v>
       </c>
       <c r="G3" t="n">
-        <v>0.544</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.921</v>
+        <v>0.664</v>
       </c>
       <c r="I3" t="n">
-        <v>0.911</v>
+        <v>0.745</v>
       </c>
       <c r="J3" t="n">
-        <v>0.921</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.603</v>
+        <v>0.361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.611</v>
+        <v>0.431</v>
       </c>
       <c r="M3" t="n">
-        <v>0.576</v>
+        <v>0.36</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2280000001192093</v>
+        <v>0.1630000025033951</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2240000069141388</v>
+        <v>0.1759999990463257</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2280000001192093</v>
+        <v>0.1609999984502792</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1720000058412552</v>
+        <v>0.1180000007152557</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.1280000060796738</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1689999997615814</v>
+        <v>0.1150000020861626</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -689,58 +689,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.386</v>
+        <v>0.373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D4" t="n">
-        <v>0.405</v>
+        <v>0.409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.517</v>
+        <v>0.494</v>
       </c>
       <c r="F4" t="n">
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
       <c r="G4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="H4" t="n">
-        <v>0.881</v>
+        <v>0.896</v>
       </c>
       <c r="I4" t="n">
-        <v>0.914</v>
+        <v>0.894</v>
       </c>
       <c r="J4" t="n">
-        <v>0.917</v>
+        <v>0.919</v>
       </c>
       <c r="K4" t="n">
-        <v>0.579</v>
+        <v>0.602</v>
       </c>
       <c r="L4" t="n">
-        <v>0.621</v>
+        <v>0.613</v>
       </c>
       <c r="M4" t="n">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2140000015497208</v>
+        <v>0.2189999967813492</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2230000048875809</v>
+        <v>0.2179999947547913</v>
       </c>
       <c r="P4" t="n">
         <v>0.2199999988079071</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1669999957084656</v>
+        <v>0.1720000058412552</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1770000010728836</v>
+        <v>0.1739999949932098</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1720000058412552</v>
+        <v>0.1710000038146973</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -760,58 +760,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.456</v>
+        <v>0.419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469</v>
+        <v>0.446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.591</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
+        <v>0.578</v>
       </c>
       <c r="G5" t="n">
         <v>0.528</v>
       </c>
       <c r="H5" t="n">
-        <v>0.855</v>
+        <v>0.91</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.947</v>
+        <v>0.981</v>
       </c>
       <c r="K5" t="n">
-        <v>0.507</v>
+        <v>0.556</v>
       </c>
       <c r="L5" t="n">
-        <v>0.483</v>
+        <v>0.556</v>
       </c>
       <c r="M5" t="n">
-        <v>0.603</v>
+        <v>0.621</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2129999995231628</v>
+        <v>0.2280000001192093</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1990000009536743</v>
+        <v>0.2240000069141388</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2339999973773956</v>
+        <v>0.2430000007152557</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1509999930858612</v>
+        <v>0.1630000025033951</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1420000046491623</v>
+        <v>0.1560000032186508</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1720000058412552</v>
+        <v>0.1770000010728836</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -831,58 +831,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.764</v>
+        <v>0.717</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.86</v>
+        <v>0.783</v>
       </c>
       <c r="G6" t="n">
-        <v>0.822</v>
+        <v>0.788</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.285</v>
       </c>
       <c r="I6" t="n">
-        <v>0.374</v>
+        <v>0.492</v>
       </c>
       <c r="J6" t="n">
-        <v>0.481</v>
+        <v>0.533</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="L6" t="n">
-        <v>0.14</v>
+        <v>0.225</v>
       </c>
       <c r="M6" t="n">
-        <v>0.193</v>
+        <v>0.233</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07199999690055847</v>
+        <v>0.08900000154972076</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1099999994039536</v>
+        <v>0.1270000040531158</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1120000034570694</v>
+        <v>0.1289999932050705</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06199999898672104</v>
+        <v>0.07000000029802322</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08100000023841858</v>
+        <v>0.09200000017881393</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08399999886751175</v>
+        <v>0.09300000220537186</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -902,58 +902,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.381</v>
+        <v>0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>0.361</v>
+        <v>0.548</v>
       </c>
       <c r="D7" t="n">
-        <v>0.419</v>
+        <v>0.541</v>
       </c>
       <c r="E7" t="n">
-        <v>0.511</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.473</v>
+        <v>0.658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.533</v>
+        <v>0.656</v>
       </c>
       <c r="H7" t="n">
-        <v>0.904</v>
+        <v>0.649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.894</v>
+        <v>0.665</v>
       </c>
       <c r="J7" t="n">
-        <v>0.894</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.591</v>
+        <v>0.346</v>
       </c>
       <c r="L7" t="n">
-        <v>0.613</v>
+        <v>0.375</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.387</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2220000028610229</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2259999960660934</v>
+        <v>0.1669999957084656</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2189999967813492</v>
+        <v>0.1700000017881393</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1669999957084656</v>
+        <v>0.1159999966621399</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1759999990463257</v>
+        <v>0.1260000020265579</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1650000065565109</v>
+        <v>0.125</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -969,62 +969,62 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>40_gat</t>
+          <t>40_fnn</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.477</v>
+        <v>0.36</v>
       </c>
       <c r="C8" t="n">
-        <v>0.372</v>
+        <v>0.339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.407</v>
+        <v>0.375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604</v>
+        <v>0.51</v>
       </c>
       <c r="F8" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.548</v>
+        <v>0.523</v>
       </c>
       <c r="H8" t="n">
-        <v>0.856</v>
+        <v>0.926</v>
       </c>
       <c r="I8" t="n">
-        <v>1.117</v>
+        <v>0.922</v>
       </c>
       <c r="J8" t="n">
-        <v>0.956</v>
+        <v>0.904</v>
       </c>
       <c r="K8" t="n">
-        <v>0.502</v>
+        <v>0.612</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7</v>
+        <v>0.617</v>
       </c>
       <c r="M8" t="n">
-        <v>0.592</v>
+        <v>0.589</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2150000035762787</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2820000052452087</v>
+        <v>0.2310000061988831</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2319999933242798</v>
+        <v>0.2240000069141388</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.153999999165535</v>
+        <v>0.1729999929666519</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1940000057220459</v>
+        <v>0.1749999970197678</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1669999957084656</v>
+        <v>0.1710000038146973</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1033,69 +1033,69 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>gat</t>
+          <t>fnn</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>40_fnn</t>
+          <t>40_gat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.364</v>
+        <v>0.467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.313</v>
+        <v>0.356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E9" t="n">
-        <v>0.511</v>
+        <v>0.596</v>
       </c>
       <c r="F9" t="n">
-        <v>0.46</v>
+        <v>0.508</v>
       </c>
       <c r="G9" t="n">
-        <v>0.496</v>
+        <v>0.519</v>
       </c>
       <c r="H9" t="n">
-        <v>1.02</v>
+        <v>0.885</v>
       </c>
       <c r="I9" t="n">
-        <v>1.046</v>
+        <v>1.194</v>
       </c>
       <c r="J9" t="n">
-        <v>1.093</v>
+        <v>0.995</v>
       </c>
       <c r="K9" t="n">
-        <v>0.662</v>
+        <v>0.525</v>
       </c>
       <c r="L9" t="n">
-        <v>0.72</v>
+        <v>0.758</v>
       </c>
       <c r="M9" t="n">
-        <v>0.726</v>
+        <v>0.637</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2479999959468842</v>
+        <v>0.2160000056028366</v>
       </c>
       <c r="O9" t="n">
-        <v>0.261000007390976</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2639999985694885</v>
+        <v>0.2419999986886978</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1850000023841858</v>
+        <v>0.1550000011920929</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2029999941587448</v>
+        <v>0.2080000042915344</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2010000050067902</v>
+        <v>0.1780000030994415</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>fnn</t>
+          <t>gat</t>
         </is>
       </c>
     </row>
@@ -1115,58 +1115,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.795</v>
+        <v>0.659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.609</v>
+        <v>0.676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.603</v>
+        <v>0.599</v>
       </c>
       <c r="E10" t="n">
-        <v>0.848</v>
+        <v>0.742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.711</v>
+        <v>0.767</v>
       </c>
       <c r="G10" t="n">
-        <v>0.701</v>
+        <v>0.696</v>
       </c>
       <c r="H10" t="n">
-        <v>0.488</v>
+        <v>0.725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.65</v>
+        <v>0.483</v>
       </c>
       <c r="J10" t="n">
-        <v>0.643</v>
+        <v>0.706</v>
       </c>
       <c r="K10" t="n">
-        <v>0.181</v>
+        <v>0.342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.333</v>
+        <v>0.233</v>
       </c>
       <c r="M10" t="n">
-        <v>0.335</v>
+        <v>0.363</v>
       </c>
       <c r="N10" t="n">
-        <v>0.119999997317791</v>
+        <v>0.1689999997615814</v>
       </c>
       <c r="O10" t="n">
-        <v>0.153999999165535</v>
+        <v>0.1150000020861626</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1529999971389771</v>
+        <v>0.1700000017881393</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08600000292062759</v>
+        <v>0.1129999980330467</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1070000007748604</v>
+        <v>0.08399999886751175</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1120000034570694</v>
+        <v>0.1190000027418137</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1186,58 +1186,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.375</v>
+        <v>0.627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.403</v>
+        <v>0.446</v>
       </c>
       <c r="D11" t="n">
-        <v>0.408</v>
+        <v>0.494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.533</v>
+        <v>0.717</v>
       </c>
       <c r="F11" t="n">
-        <v>0.511</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.523</v>
+        <v>0.619</v>
       </c>
       <c r="H11" t="n">
-        <v>1.005</v>
+        <v>0.677</v>
       </c>
       <c r="I11" t="n">
-        <v>0.83</v>
+        <v>0.632</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.719</v>
       </c>
       <c r="K11" t="n">
-        <v>0.648</v>
+        <v>0.342</v>
       </c>
       <c r="L11" t="n">
-        <v>0.556</v>
+        <v>0.4</v>
       </c>
       <c r="M11" t="n">
-        <v>0.613</v>
+        <v>0.425</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2590000033378601</v>
+        <v>0.1580000072717667</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.1529999971389771</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2360000014305115</v>
+        <v>0.1749999970197678</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1920000016689301</v>
+        <v>0.1140000000596046</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1449999958276749</v>
+        <v>0.1220000013709068</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1790000051259995</v>
+        <v>0.1309999972581863</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1253,62 +1253,62 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10_fnn</t>
+          <t>10_gat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.315</v>
+        <v>0.475</v>
       </c>
       <c r="C12" t="n">
-        <v>0.262</v>
+        <v>0.451</v>
       </c>
       <c r="D12" t="n">
-        <v>0.342</v>
+        <v>0.38</v>
       </c>
       <c r="E12" t="n">
-        <v>0.495</v>
+        <v>0.592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.487</v>
+        <v>0.521</v>
       </c>
       <c r="H12" t="n">
-        <v>1.134</v>
+        <v>1.033</v>
       </c>
       <c r="I12" t="n">
-        <v>1.22</v>
+        <v>0.775</v>
       </c>
       <c r="J12" t="n">
-        <v>1.088</v>
+        <v>1.052</v>
       </c>
       <c r="K12" t="n">
-        <v>0.752</v>
+        <v>0.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0.867</v>
+        <v>0.467</v>
       </c>
       <c r="M12" t="n">
-        <v>0.722</v>
+        <v>0.667</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2809999883174896</v>
+        <v>0.2509999871253967</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2960000038146973</v>
+        <v>0.1959999948740005</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2680000066757202</v>
+        <v>0.257999986410141</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.210999995470047</v>
+        <v>0.1700000017881393</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2220000028610229</v>
+        <v>0.1340000033378601</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2020000070333481</v>
+        <v>0.1860000044107437</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1317,69 +1317,69 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>fnn</t>
+          <t>gat</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>10_gat</t>
+          <t>10_fnn</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.532</v>
+        <v>0.325</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235</v>
+        <v>0.368</v>
       </c>
       <c r="D13" t="n">
-        <v>0.341</v>
+        <v>0.355</v>
       </c>
       <c r="E13" t="n">
-        <v>0.648</v>
+        <v>0.425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4</v>
+        <v>0.467</v>
       </c>
       <c r="G13" t="n">
-        <v>0.49</v>
+        <v>0.435</v>
       </c>
       <c r="H13" t="n">
-        <v>0.889</v>
+        <v>1.372</v>
       </c>
       <c r="I13" t="n">
-        <v>1.106</v>
+        <v>1.354</v>
       </c>
       <c r="J13" t="n">
-        <v>1.087</v>
+        <v>1.317</v>
       </c>
       <c r="K13" t="n">
-        <v>0.486</v>
+        <v>0.967</v>
       </c>
       <c r="L13" t="n">
-        <v>0.778</v>
+        <v>0.9</v>
       </c>
       <c r="M13" t="n">
-        <v>0.713</v>
+        <v>0.912</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2119999974966049</v>
+        <v>0.3339999914169312</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2790000140666962</v>
+        <v>0.3269999921321869</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2680000066757202</v>
+        <v>0.3210000097751617</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1420000046491623</v>
+        <v>0.2569999992847443</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2090000063180923</v>
+        <v>0.2339999973773956</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1979999989271164</v>
+        <v>0.2450000047683716</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>gat</t>
+          <t>fnn</t>
         </is>
       </c>
     </row>
